--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1426790.781607937</v>
+        <v>-1428689.01371206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>209.3990411132271</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>16.41419615070361</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>311.864559717222</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.15972721078626</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>42.52480837158227</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>125.3962972147089</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>167.0465827558143</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>171.8739371844418</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>4.164013692469488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>273.169819334791</v>
+        <v>289.9093286709409</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>147.3627673269534</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>36.1624232220542</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>146.278729911946</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>58.89084240123825</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>248.6275829019198</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>238.6620249329873</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>88.44827742123786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>186.6930743572746</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>273.0455769043338</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>2.659981690977313</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>12.25082275066678</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.4958706305991</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>27.71082088042311</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692819</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
         <v>80.78193823789547</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287484</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329028</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.337372245452</v>
+        <v>760.0412647933347</v>
       </c>
       <c r="C2" t="n">
-        <v>804.3748553050402</v>
+        <v>760.0412647933347</v>
       </c>
       <c r="D2" t="n">
-        <v>804.3748553050402</v>
+        <v>760.0412647933347</v>
       </c>
       <c r="E2" t="n">
-        <v>418.586602706796</v>
+        <v>548.527081850681</v>
       </c>
       <c r="F2" t="n">
-        <v>411.6411019575925</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>397.7176978961834</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>70.52297793218628</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1523.646355030226</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1150.180596769146</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.337372245452</v>
+        <v>760.0412647933347</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>663.910013048764</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>663.910013048764</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>663.910013048764</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>537.0279737501311</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>537.0279737501311</v>
+        <v>663.910013048764</v>
       </c>
       <c r="U4" t="n">
-        <v>537.0279737501311</v>
+        <v>663.910013048764</v>
       </c>
       <c r="V4" t="n">
-        <v>537.0279737501311</v>
+        <v>663.910013048764</v>
       </c>
       <c r="W4" t="n">
-        <v>537.0279737501311</v>
+        <v>663.910013048764</v>
       </c>
       <c r="X4" t="n">
-        <v>537.0279737501311</v>
+        <v>663.910013048764</v>
       </c>
       <c r="Y4" t="n">
-        <v>316.235394606601</v>
+        <v>663.910013048764</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1349.56916835588</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>991.3034697491294</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>605.5152171508851</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>194.5293123612775</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>180.6059082998684</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2297.208991887316</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2297.208991887316</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1966.146104543745</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1966.146104543745</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>495.9333588715792</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>495.9333588715792</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>495.9333588715792</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>723.9229097695966</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>723.9229097695966</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>723.9229097695966</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>723.9229097695966</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>723.9229097695966</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>723.9229097695966</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X7" t="n">
-        <v>495.9333588715792</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y7" t="n">
-        <v>495.9333588715792</v>
+        <v>409.5384547146241</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1133.624152959605</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>1133.624152959605</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.624152959605</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E8" t="n">
-        <v>747.8359003613605</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1520.223993023727</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1520.223993023727</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4899,25 +4899,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4926,7 +4926,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.2777040781987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>579.2777040781987</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>579.2777040781987</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>579.2777040781987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.2777040781987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>3409.006809316316</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>4078.470570618976</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1462.388570333605</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1262.468560249157</v>
       </c>
       <c r="T13" t="n">
-        <v>1151.239967633105</v>
+        <v>1262.468560249157</v>
       </c>
       <c r="U13" t="n">
-        <v>862.1113288466635</v>
+        <v>1262.468560249157</v>
       </c>
       <c r="V13" t="n">
-        <v>607.4268406407766</v>
+        <v>1007.78407204327</v>
       </c>
       <c r="W13" t="n">
-        <v>318.0096706038159</v>
+        <v>1007.78407204327</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1007.78407204327</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1007.78407204327</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>622.94692973335</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C16" t="n">
-        <v>454.0107468054431</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D16" t="n">
-        <v>454.0107468054431</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>454.0107468054431</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>307.1207993075327</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>307.1207993075327</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>156.702790855476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768801</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="X16" t="n">
-        <v>843.7395088768801</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="Y16" t="n">
-        <v>622.94692973335</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5607,7 +5607,7 @@
         <v>1908.095276920732</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.3120936331045</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1057.923508015892</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>1057.923508015892</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.446367141521</v>
+        <v>768.5063379789311</v>
       </c>
       <c r="X19" t="n">
-        <v>931.1046727766346</v>
+        <v>540.5167870809138</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.3120936331045</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1199.262304132582</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1199.262304132582</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>944.5778159266949</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W22" t="n">
-        <v>944.5778159266949</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="X22" t="n">
-        <v>944.5778159266949</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="Y22" t="n">
-        <v>723.7852367831648</v>
+        <v>822.9089152986054</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,16 +5999,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483982</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.0220331715246</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C25" t="n">
-        <v>565.0858502436178</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D25" t="n">
-        <v>414.969210831282</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="X25" t="n">
-        <v>954.8146123150548</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.0220331715246</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,67 +6209,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>488.2756279992592</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>735.0407559057232</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>2205.048458376742</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.3735683412849</v>
+        <v>294.1440025502363</v>
       </c>
       <c r="C28" t="n">
-        <v>552.3735683412849</v>
+        <v>125.2078196223294</v>
       </c>
       <c r="D28" t="n">
-        <v>402.2569289289492</v>
+        <v>125.2078196223294</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>125.2078196223294</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>125.2078196223294</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X28" t="n">
-        <v>954.8146123150548</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.0220331715246</v>
+        <v>475.7924673804761</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2484.468242641992</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083206</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504513</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,13 +6920,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103123</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010319</v>
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525395</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649686</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>285.1031356539322</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>52.49733361305249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>145.2351313103796</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>134.4977453535108</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>283.6093329825492</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>76.43196988338502</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>127.6461250100641</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.49733361305314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>202.5230052237938</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>134.4977453535109</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>37.37640900019104</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.672252971151</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>161.4583240119905</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>73.8019291817386</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>75.26883114644326</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520963</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>51.52840306303375</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>37.89541543467121</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>47.57532746559002</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>137.2613779677993</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>34.85448670111467</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>13.47742143225724</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>143.7739809555919</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>209.2967383077225</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>10.93809201597011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.7827475829545</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,13 +24652,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1272679.805056964</v>
+        <v>1272679.805056963</v>
       </c>
     </row>
     <row r="6">
@@ -26317,7 +26317,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
         <v>117308.7179213126</v>
@@ -26329,19 +26329,19 @@
         <v>117308.7179213126</v>
       </c>
       <c r="H2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="I2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="J2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371254</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161410.6210996772</v>
+        <v>161410.6210996773</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26430,31 +26430,31 @@
         <v>22174.60758687075</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819118</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-712190.93717405</v>
+        <v>-712209.4309119846</v>
       </c>
       <c r="C6" t="n">
         <v>-125335.6803702914</v>
@@ -26528,40 +26528,40 @@
         <v>-125335.6803702914</v>
       </c>
       <c r="E6" t="n">
-        <v>-522013.2520911708</v>
+        <v>-522110.7112171429</v>
       </c>
       <c r="F6" t="n">
-        <v>3146.784385725259</v>
+        <v>3049.325259753051</v>
       </c>
       <c r="G6" t="n">
-        <v>3146.784385725245</v>
+        <v>3049.32525975311</v>
       </c>
       <c r="H6" t="n">
-        <v>3146.784385725201</v>
+        <v>3049.325259753095</v>
       </c>
       <c r="I6" t="n">
-        <v>3146.784385725216</v>
+        <v>3049.32525975311</v>
       </c>
       <c r="J6" t="n">
-        <v>-173276.4348068677</v>
+        <v>-173373.89393284</v>
       </c>
       <c r="K6" t="n">
-        <v>-73657.74727228654</v>
+        <v>-73657.74727228664</v>
       </c>
       <c r="L6" t="n">
-        <v>-19152.23516857401</v>
+        <v>-19152.23516857407</v>
       </c>
       <c r="M6" t="n">
         <v>-153953.2504024112</v>
       </c>
       <c r="N6" t="n">
-        <v>-19152.23516857404</v>
+        <v>-19152.23516857407</v>
       </c>
       <c r="O6" t="n">
-        <v>-19152.23516857404</v>
+        <v>-19152.23516857407</v>
       </c>
       <c r="P6" t="n">
-        <v>-73657.74727228659</v>
+        <v>-73657.74727228662</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26747,25 +26747,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>172.5313289590347</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>135.5171200941576</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>169.6207305784366</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>198.5264755496482</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>49.40173760184354</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>7.958042997495511</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>142.5011782876883</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>133.7062264069204</v>
+        <v>116.9667170707706</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>138.9191069150243</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>492.1965505854569</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>427.5988335514877</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>416.8614475946189</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>490.7027479140739</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>227.0074084713243</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>334.7395399415888</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.5103663981272</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>535.7175786218068</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,7 +37628,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>341.5911602850355</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,13 +38187,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
